--- a/templates/Project To Project Transfer.xlsx
+++ b/templates/Project To Project Transfer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002835A5-4E4D-4771-B9CB-33281FA9F38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50518481-8FE7-44EB-B74A-4BB2229754D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BB441E9F-4FBE-410A-8F63-C9ADD7579EED}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="42">
   <si>
     <t>Item Name</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Transaction Date</t>
   </si>
   <si>
-    <t>Charge Code</t>
-  </si>
-  <si>
     <t>100 Home Project</t>
   </si>
   <si>
@@ -145,6 +142,24 @@
   </si>
   <si>
     <t>LOT Lot</t>
+  </si>
+  <si>
+    <t>From Charge Code</t>
+  </si>
+  <si>
+    <t>1019 (100 MS-project)</t>
+  </si>
+  <si>
+    <t>1019_PC1</t>
+  </si>
+  <si>
+    <t>To Charge Code</t>
+  </si>
+  <si>
+    <t>1019 to 100</t>
+  </si>
+  <si>
+    <t>100 To 1019</t>
   </si>
 </sst>
 </file>
@@ -496,27 +511,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED1BA4C-8A3F-4959-95F4-114CD1E971EA}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C4" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,192 +551,421 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>32</v>
       </c>
       <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
       <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
       <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7">
+        <v>17</v>
+      </c>
+      <c r="J7">
         <v>6</v>
       </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
         <v>26</v>
       </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8">
-        <v>7</v>
-      </c>
-      <c r="J8" t="s">
-        <v>36</v>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="K16" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/templates/Project To Project Transfer.xlsx
+++ b/templates/Project To Project Transfer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50518481-8FE7-44EB-B74A-4BB2229754D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02ABF868-0E0D-470A-9E5D-96CFBB082D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BB441E9F-4FBE-410A-8F63-C9ADD7579EED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BB441E9F-4FBE-410A-8F63-C9ADD7579EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>Item Name</t>
   </si>
@@ -69,30 +69,12 @@
     <t>100 Home Project</t>
   </si>
   <si>
-    <t>C18 (Consigned 21.18)</t>
-  </si>
-  <si>
-    <t>Con2</t>
-  </si>
-  <si>
     <t>6/29/2021</t>
   </si>
   <si>
-    <t>Serial</t>
-  </si>
-  <si>
-    <t>Non Serial</t>
-  </si>
-  <si>
     <t>From Lot</t>
   </si>
   <si>
-    <t>LT2206</t>
-  </si>
-  <si>
-    <t>Lt1</t>
-  </si>
-  <si>
     <t>Pro-1</t>
   </si>
   <si>
@@ -108,21 +90,9 @@
     <t>multidiv Serial track (Serial track)</t>
   </si>
   <si>
-    <t>L100</t>
-  </si>
-  <si>
-    <t>OH18 (OH 21.18)</t>
-  </si>
-  <si>
     <t>LT3</t>
   </si>
   <si>
-    <t>Pro-101</t>
-  </si>
-  <si>
-    <t>100 ()</t>
-  </si>
-  <si>
     <t>9RH2F</t>
   </si>
   <si>
@@ -139,9 +109,6 @@
   </si>
   <si>
     <t>Serial Track</t>
-  </si>
-  <si>
-    <t>LOT Lot</t>
   </si>
   <si>
     <t>From Charge Code</t>
@@ -511,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED1BA4C-8A3F-4959-95F4-114CD1E971EA}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="A2:XFD4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,13 +518,13 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
         <v>1</v>
@@ -568,88 +535,97 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="J2">
         <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -657,315 +633,40 @@
       <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" t="s">
-        <v>38</v>
-      </c>
       <c r="J5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" t="s">
-        <v>38</v>
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
       </c>
       <c r="J6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7">
-        <v>6</v>
-      </c>
-      <c r="K7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8">
-        <v>7</v>
-      </c>
-      <c r="K8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
         <v>29</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14">
-        <v>5</v>
-      </c>
-      <c r="K14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15">
-        <v>5</v>
-      </c>
-      <c r="K15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16">
-        <v>6</v>
-      </c>
-      <c r="K16" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
